--- a/template.xlsx
+++ b/template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>taskType</t>
   </si>
@@ -40,6 +40,9 @@
     <t>pickupPhone</t>
   </si>
   <si>
+    <t>pickupDescription</t>
+  </si>
+  <si>
     <t>deliverAddress</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>deliverName</t>
   </si>
   <si>
+    <t>deliverDescription</t>
+  </si>
+  <si>
     <t>deliverBefore</t>
   </si>
   <si>
@@ -70,48 +76,49 @@
     <t>pickupOnDelivery</t>
   </si>
   <si>
-    <t>smouha, alexandria</t>
+    <t>cairo</t>
+  </si>
+  <si>
+    <t>30/8/2020 10:49</t>
+  </si>
+  <si>
+    <t>zeyadzaher02@gmail.com</t>
+  </si>
+  <si>
+    <t>Zeyad</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ali heba ,alexandria</t>
+  </si>
+  <si>
+    <t>belal@belal.com</t>
+  </si>
+  <si>
+    <t>belal</t>
+  </si>
+  <si>
+    <t>descripton</t>
   </si>
   <si>
     <t>30/8/2020 20:49</t>
   </si>
   <si>
-    <t>zeyadzaher02@gmail.com</t>
-  </si>
-  <si>
-    <t>Zeyad</t>
-  </si>
-  <si>
-    <t>ali heba ,alexandria</t>
-  </si>
-  <si>
-    <t>belal@belal.com</t>
-  </si>
-  <si>
-    <t>belal</t>
-  </si>
-  <si>
     <t>zeyadzaher</t>
-  </si>
-  <si>
-    <t>pickupOnDeliverya</t>
-  </si>
-  <si>
-    <t>pickupOnDeliverys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-m-d h:mm"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -119,6 +126,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -143,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -159,11 +171,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -403,16 +421,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -430,40 +448,46 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>29.912326</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31.17521</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>29.98416</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31.240474</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1">
         <v>46523.0</v>
@@ -471,163 +495,99 @@
       <c r="I2" s="1">
         <v>1.281926584E9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1">
-        <v>31.207264</v>
-      </c>
-      <c r="L2" s="2">
-        <v>29.936762</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3">
+        <v>30.328731</v>
+      </c>
+      <c r="M2" s="2">
+        <v>30.524676</v>
+      </c>
+      <c r="N2" s="1">
         <v>1.284657542E9</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1">
         <v>7895.0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>26</v>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4">
-        <v>29.912326</v>
-      </c>
-      <c r="D3" s="4">
-        <v>31.17521</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6">
-        <v>46523.0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1.281926584E9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="7">
-        <v>31.207264</v>
-      </c>
-      <c r="L3" s="2">
-        <v>29.936762</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1.284657542E9</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>7895.0</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4">
-        <v>29.912326</v>
-      </c>
-      <c r="D4" s="4">
-        <v>31.17521</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6">
-        <v>46523.0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1.281926584E9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="7">
-        <v>31.207264</v>
-      </c>
-      <c r="L4" s="7">
-        <v>29.936762</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.284657542E9</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>7895.0</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
